--- a/src/main/resources/xls_template/payList_export.xlsx
+++ b/src/main/resources/xls_template/payList_export.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimiyu/Project/sjesnew/sjes-gateway-admin/src/main/resources/xls_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProjects\anxian-gateway-admin\src\main\resources\xls_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="860" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="9375" yWindow="855" windowWidth="25605" windowHeight="14535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,10 @@
   </si>
   <si>
     <t>${pays.shopId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pays.bankName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,6 +236,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -561,11 +568,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
@@ -576,7 +583,7 @@
     <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -626,7 +633,9 @@
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
